--- a/test/testcase2.xlsx
+++ b/test/testcase2.xlsx
@@ -14,48 +14,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>rating</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>paneer</t>
-  </si>
-  <si>
-    <t>veg</t>
-  </si>
-  <si>
-    <t>delicious</t>
-  </si>
-  <si>
-    <t>www.abc.com</t>
-  </si>
-  <si>
-    <t>chicken</t>
-  </si>
-  <si>
-    <t>non-veg</t>
-  </si>
-  <si>
-    <t>yum</t>
-  </si>
-  <si>
-    <t>www.pqr.com</t>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Abhinav Mishra</t>
+  </si>
+  <si>
+    <t>abhinavmishradsce@gamil.com</t>
+  </si>
+  <si>
+    <t>passcode1234</t>
+  </si>
+  <si>
+    <t>Ayush Sharma</t>
+  </si>
+  <si>
+    <t>aysuhsharma1234@yahoo.com</t>
+  </si>
+  <si>
+    <t>goodmorning</t>
+  </si>
+  <si>
+    <t>Abhijeet Kumar</t>
+  </si>
+  <si>
+    <t>abhijeetkumariscool@gmail.com</t>
+  </si>
+  <si>
+    <t>helloworld</t>
   </si>
 </sst>
 </file>
@@ -63,10 +60,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -87,6 +84,84 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,38 +175,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -139,83 +210,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,181 +233,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,11 +421,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,16 +461,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,38 +489,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,142 +523,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -997,15 +994,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="20.4453125" customWidth="1"/>
+    <col min="2" max="2" width="22.7890625" customWidth="1"/>
+    <col min="3" max="3" width="30.4609375" customWidth="1"/>
+    <col min="4" max="4" width="20.4375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1017,58 +1020,59 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>7044025570</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>300</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="E2"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>8088805362</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4">
+        <v>8864264218</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3">
-        <v>200</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>12</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="www.abc.com"/>
-    <hyperlink ref="F3" r:id="rId2" display="www.pqr.com"/>
+    <hyperlink ref="C2" r:id="rId1" display="abhinavmishradsce@gamil.com"/>
+    <hyperlink ref="C3" r:id="rId2" display="aysuhsharma1234@yahoo.com"/>
+    <hyperlink ref="C4" r:id="rId3" display="abhijeetkumariscool@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
